--- a/DesignTable/Data/table명세서.xlsx
+++ b/DesignTable/Data/table명세서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectT\DesignTable\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ProjectT\DesignTable\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B300FDA-4FAC-4A66-8884-A87965515AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8A5FDB-F052-4016-A98C-454488B7DE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기획테이블" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="256">
   <si>
     <t>id</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -756,10 +756,6 @@
     <t>PK</t>
   </si>
   <si>
-    <t>{"UseListRule":true,"FindPKId" : ["unit_Class","unit_type"],"PKIds":["unit_Class","unit_type","skill_Id"]}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>G_1017</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1029,6 +1025,10 @@
   </si>
   <si>
     <t>Path</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"UseListRule":true,"FindPKId" : ["skill_Id"],"PKIds":["skill_Id"]}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1712,8 +1712,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1894,7 +1894,7 @@
         <v>149</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>145</v>
@@ -1917,7 +1917,7 @@
         <v>150</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>145</v>
@@ -2031,14 +2031,11 @@
       <c r="G15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="I15" s="11" t="s">
         <v>102</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>15</v>
@@ -2064,9 +2061,6 @@
       </c>
       <c r="G16" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>185</v>
@@ -2425,10 +2419,10 @@
         <v>9</v>
       </c>
       <c r="E31" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>13</v>
@@ -2448,10 +2442,10 @@
         <v>9</v>
       </c>
       <c r="E32" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>203</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>94</v>
@@ -2471,10 +2465,10 @@
         <v>9</v>
       </c>
       <c r="E33" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>94</v>
@@ -2494,10 +2488,10 @@
         <v>9</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>94</v>
@@ -2517,10 +2511,10 @@
         <v>9</v>
       </c>
       <c r="E35" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>209</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>127</v>
@@ -2540,17 +2534,17 @@
         <v>9</v>
       </c>
       <c r="E36" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>238</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I36" s="11"/>
       <c r="K36" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -3002,7 +2996,7 @@
         <v>149</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>145</v>
@@ -3207,7 +3201,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>9</v>
@@ -3298,10 +3292,10 @@
         <v>9</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>167</v>
@@ -3391,7 +3385,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>9</v>
@@ -3482,10 +3476,10 @@
         <v>9</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>167</v>
@@ -3575,7 +3569,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>9</v>
@@ -3584,10 +3578,10 @@
         <v>9</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
@@ -3627,7 +3621,7 @@
       </c>
       <c r="I89" s="11"/>
       <c r="J89" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K89" s="10" t="s">
         <v>15</v>
@@ -3675,7 +3669,7 @@
         <v>9</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>147</v>
@@ -3700,19 +3694,19 @@
         <v>93</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="6" t="s">
+      <c r="F93" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
@@ -3739,10 +3733,10 @@
         <v>9</v>
       </c>
       <c r="E95" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F95" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>214</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>145</v>
@@ -3768,10 +3762,10 @@
         <v>9</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>145</v>
@@ -3791,10 +3785,10 @@
         <v>9</v>
       </c>
       <c r="E97" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F97" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="G97" s="10" t="s">
         <v>94</v>
@@ -3817,10 +3811,10 @@
         <v>9</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G98" s="10" t="s">
         <v>94</v>
@@ -3843,10 +3837,10 @@
         <v>9</v>
       </c>
       <c r="E99" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F99" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>94</v>
@@ -3869,10 +3863,10 @@
         <v>9</v>
       </c>
       <c r="E100" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F100" s="10" t="s">
         <v>223</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>224</v>
       </c>
       <c r="G100" s="10" t="s">
         <v>127</v>
@@ -3894,7 +3888,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>9</v>
@@ -3903,10 +3897,10 @@
         <v>9</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
@@ -3933,10 +3927,10 @@
         <v>9</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>145</v>
@@ -3962,16 +3956,16 @@
         <v>9</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>145</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -3987,10 +3981,10 @@
         <v>9</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>145</v>
@@ -4013,10 +4007,10 @@
         <v>9</v>
       </c>
       <c r="E107" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F107" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>235</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>94</v>
@@ -4039,10 +4033,10 @@
         <v>9</v>
       </c>
       <c r="E108" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F108" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>203</v>
       </c>
       <c r="G108" s="10" t="s">
         <v>94</v>
@@ -4064,7 +4058,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>9</v>
@@ -4073,10 +4067,10 @@
         <v>9</v>
       </c>
       <c r="E110" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F110" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
@@ -4103,10 +4097,10 @@
         <v>9</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>13</v>
@@ -4132,10 +4126,10 @@
         <v>9</v>
       </c>
       <c r="E113" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F113" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>94</v>
@@ -4155,10 +4149,10 @@
         <v>9</v>
       </c>
       <c r="E114" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F114" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>145</v>
@@ -4174,19 +4168,19 @@
         <v>115</v>
       </c>
       <c r="B115" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="6" t="s">
+      <c r="F115" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
@@ -4213,10 +4207,10 @@
         <v>9</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G117" s="10" t="s">
         <v>13</v>
@@ -4225,7 +4219,7 @@
         <v>14</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K117" s="10" t="s">
         <v>15</v>
@@ -4244,10 +4238,10 @@
         <v>9</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>94</v>

--- a/DesignTable/Data/table명세서.xlsx
+++ b/DesignTable/Data/table명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ProjectT\DesignTable\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8A5FDB-F052-4016-A98C-454488B7DE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315D591-23C0-4AE7-B39A-896DD8C2E95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="260">
   <si>
     <t>id</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -1029,6 +1029,22 @@
   </si>
   <si>
     <t>{"UseListRule":true,"FindPKId" : ["skill_Id"],"PKIds":["skill_Id"]}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_1024</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneData</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬 데이터</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneName</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1710,10 +1726,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J117" sqref="J117:K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3375,7 +3391,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <f t="shared" ref="A77:A118" si="1" xml:space="preserve"> ROW()</f>
+        <f t="shared" ref="A77:A123" si="1" xml:space="preserve"> ROW()</f>
         <v>77</v>
       </c>
     </row>
@@ -4248,10 +4264,100 @@
       </c>
       <c r="I118" s="11"/>
     </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <f xml:space="preserve"> ROW()</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B122" s="9"/>
+      <c r="C122" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" s="11"/>
+      <c r="K122" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B123" s="9"/>
+      <c r="C123" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I123" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G52:G53 G57:G67 G40:G48 G71:G76 G80:G85 G89:G91 G95:G100 G104:G108 G15:G36 G112:G114 G5:G11 G117:G118" xr:uid="{264C1E52-5B28-48FA-83C0-DDC263029AB9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G52:G53 G57:G67 G40:G48 G71:G76 G80:G85 G89:G91 G95:G100 G104:G108 G15:G36 G112:G114 G5:G11 G117:G118 G122:G123" xr:uid="{264C1E52-5B28-48FA-83C0-DDC263029AB9}">
       <formula1>DataType</formula1>
     </dataValidation>
   </dataValidations>
